--- a/data.xlsx
+++ b/data.xlsx
@@ -5,17 +5,39 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyennguyen/Huyen/Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyennguyen/Huyen/GitHub/Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FF9AB13-CD78-4A4A-A67D-3B35D0787FC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACA7409-3F39-6841-A5A3-A1BD9FE0C858}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="460" windowWidth="45100" windowHeight="25880" xr2:uid="{73E61036-ED25-4848-8173-7D73409083BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$3:$B$15</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$3:$D$15</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$E$3:$E$15</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$3:$B$14</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$3:$D$15</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$E$3:$E$15</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$3:$B$14</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$D$3:$D$15</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$E$3:$E$15</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$3:$D$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$3:$E$15</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$3:$B$14</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$3:$D$15</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$3:$E$15</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$3:$B$14</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>StartDate</t>
   </si>
@@ -77,15 +99,17 @@
   <si>
     <t>Instruction TFJS Examples</t>
   </si>
+  <si>
+    <t>Reviews for 2 Papers - IEEE Big Data 2018</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="169" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="170" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="[$-409]d\-mmm;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -122,22 +146,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -194,12 +217,7 @@
           <c:spPr>
             <a:noFill/>
             <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst>
               <a:outerShdw dist="19050" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
@@ -210,9 +228,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$D$14</c:f>
+              <c:f>Sheet1!$D$3:$D$15</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Sattelite Images for Drought Index</c:v>
                 </c:pt>
@@ -235,18 +253,21 @@
                   <c:v>SMT Solvers</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Reviews for 2 Papers - IEEE Big Data 2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>WordStreamCVE</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>WatViz (AgasedViz) - Journal EES 2019</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Rotorcraft</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Instruction TFJS Examples</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>WordStream Revise - IEEE EuroVis 2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -254,10 +275,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$14</c:f>
+              <c:f>Sheet1!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43339</c:v>
                 </c:pt>
@@ -280,18 +301,21 @@
                   <c:v>43405</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43413</c:v>
+                  <c:v>43408</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>43413</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43420</c:v>
+                  <c:v>43413</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43420</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>43420</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>43434</c:v>
                 </c:pt>
               </c:numCache>
@@ -306,9 +330,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Duration</c:v>
-          </c:tx>
           <c:spPr>
             <a:gradFill flip="none" rotWithShape="1">
               <a:gsLst>
@@ -687,7 +708,7 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="9"/>
+            <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -729,17 +750,56 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-A1BD-964B-953D-F91956A40C03}"/>
-              </c:ext>
-            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="73000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$D$14</c:f>
+              <c:f>Sheet1!$D$3:$D$15</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Sattelite Images for Drought Index</c:v>
                 </c:pt>
@@ -762,18 +822,21 @@
                   <c:v>SMT Solvers</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Reviews for 2 Papers - IEEE Big Data 2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>WordStreamCVE</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>WatViz (AgasedViz) - Journal EES 2019</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Rotorcraft</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Instruction TFJS Examples</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>WordStream Revise - IEEE EuroVis 2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -781,10 +844,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$14</c:f>
+              <c:f>Sheet1!$E$3:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -807,18 +870,21 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
@@ -1590,14 +1656,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>850747</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>521702</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>85839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>267771</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>764226</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>76505</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1630,12 +1696,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.4723</cdr:x>
-      <cdr:y>0.23902</cdr:y>
+      <cdr:x>0.4764</cdr:x>
+      <cdr:y>0.22327</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.49394</cdr:x>
-      <cdr:y>0.28339</cdr:y>
+      <cdr:x>0.49804</cdr:x>
+      <cdr:y>0.26764</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1652,8 +1718,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3992084" y="985244"/>
-          <a:ext cx="182881" cy="182880"/>
+          <a:off x="4023478" y="900127"/>
+          <a:ext cx="182762" cy="178881"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="diamond">
           <a:avLst/>
@@ -1710,12 +1776,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.55543</cdr:x>
-      <cdr:y>0.45963</cdr:y>
+      <cdr:x>0.56295</cdr:x>
+      <cdr:y>0.43099</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.57707</cdr:x>
-      <cdr:y>0.504</cdr:y>
+      <cdr:x>0.58459</cdr:x>
+      <cdr:y>0.47536</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1732,8 +1798,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4694715" y="1894593"/>
-          <a:ext cx="182881" cy="182880"/>
+          <a:off x="4754422" y="1737579"/>
+          <a:ext cx="182763" cy="178881"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="diamond">
           <a:avLst/>
@@ -1881,12 +1947,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.51651</cdr:x>
-      <cdr:y>0.31115</cdr:y>
+      <cdr:x>0.52061</cdr:x>
+      <cdr:y>0.2954</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.53815</cdr:x>
-      <cdr:y>0.35551</cdr:y>
+      <cdr:x>0.54225</cdr:x>
+      <cdr:y>0.33976</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1903,8 +1969,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4365740" y="1282546"/>
-          <a:ext cx="182881" cy="182880"/>
+          <a:off x="4396857" y="1190925"/>
+          <a:ext cx="182762" cy="178840"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="diamond">
           <a:avLst/>
@@ -2350,54 +2416,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07A9779-1A94-AC43-8265-A16635DF586B}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20" style="3" customWidth="1"/>
     <col min="4" max="4" width="34.83203125" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>43339</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>43352</v>
       </c>
       <c r="D3" t="s">
@@ -2407,17 +2473,17 @@
         <f>C3-B3+1</f>
         <v>14</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>43348</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>43446</v>
       </c>
       <c r="D4" t="s">
@@ -2427,17 +2493,17 @@
         <f>C4-B4+1</f>
         <v>99</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>43352</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>43381</v>
       </c>
       <c r="D5" t="s">
@@ -2447,17 +2513,17 @@
         <f>C5-B5+1</f>
         <v>30</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>43381</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>43390</v>
       </c>
       <c r="D6" t="s">
@@ -2467,17 +2533,17 @@
         <f>C6-B6+1</f>
         <v>10</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>43384</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>43397</v>
       </c>
       <c r="D7" t="s">
@@ -2487,17 +2553,17 @@
         <f>C7-B7+1</f>
         <v>14</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>43394</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>43425</v>
       </c>
       <c r="D8" t="s">
@@ -2507,17 +2573,17 @@
         <f>C8-B8+1</f>
         <v>32</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>43405</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>43409</v>
       </c>
       <c r="D9" t="s">
@@ -2532,95 +2598,113 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
-        <v>43413</v>
-      </c>
-      <c r="C10" s="6">
-        <v>43413</v>
+      <c r="B10" s="3">
+        <v>43408</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43410</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <f>C10-B10+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>43413</v>
       </c>
-      <c r="C11" s="6">
-        <v>43446</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>15</v>
+      <c r="C11" s="3">
+        <v>43413</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
       </c>
       <c r="E11">
         <f>C11-B11+1</f>
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
-        <v>43420</v>
-      </c>
-      <c r="C12" s="6">
-        <v>43422</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
+      <c r="B12" s="3">
+        <v>43413</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43446</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E12">
         <f>C12-B12+1</f>
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>43420</v>
       </c>
-      <c r="C13" s="6">
-        <v>43446</v>
+      <c r="C13" s="3">
+        <v>43422</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <f>C13-B13+1</f>
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
-        <v>43434</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="B14" s="3">
+        <v>43420</v>
+      </c>
+      <c r="C14" s="3">
         <v>43446</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <f>C14-B14+1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43434</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43446</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <f>C15-B15+1</f>
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:E14">
-    <sortCondition ref="A3"/>
+  <sortState ref="A3:E15">
+    <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
